--- a/Daily/ACF - PACF/First Difference/keyence residuals - values.xlsx
+++ b/Daily/ACF - PACF/First Difference/keyence residuals - values.xlsx
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-6.494279601751033E-05</v>
+        <v>-0.009174567886634073</v>
       </c>
       <c r="C3">
-        <v>-6.496793840854563E-05</v>
+        <v>-0.0091781197905778</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.005203723235054769</v>
+        <v>-0.005005792066341612</v>
       </c>
       <c r="C4">
-        <v>-0.00520775824722211</v>
+        <v>-0.005094336538545035</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.0230482386466645</v>
+        <v>0.0005503177521081026</v>
       </c>
       <c r="C5">
-        <v>-0.02307633292157843</v>
+        <v>0.0004580378665679804</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.02493216269040406</v>
+        <v>-0.006956579613985462</v>
       </c>
       <c r="C6">
-        <v>-0.0250177256193665</v>
+        <v>-0.00698435068545394</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.004335030882012132</v>
+        <v>0.007783369387338116</v>
       </c>
       <c r="C7">
-        <v>0.004084191514203223</v>
+        <v>0.00767613933297398</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.0008535537638217855</v>
+        <v>0.0009910356975616811</v>
       </c>
       <c r="C8">
-        <v>-0.001647726694486268</v>
+        <v>0.001064898846238539</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.03813645603450232</v>
+        <v>-0.0137072436234002</v>
       </c>
       <c r="C9">
-        <v>-0.03939811215787206</v>
+        <v>-0.01364331965807543</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.007672506567038156</v>
+        <v>0.001993488295714939</v>
       </c>
       <c r="C10">
-        <v>-0.008215674087484573</v>
+        <v>0.00170402561075955</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.02107931866480113</v>
+        <v>0.01897684052562696</v>
       </c>
       <c r="C11">
-        <v>0.02094703245652051</v>
+        <v>0.01905356256312163</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.001694089920647538</v>
+        <v>0.0109424876360047</v>
       </c>
       <c r="C12">
-        <v>-0.0002524060674214087</v>
+        <v>0.01132695057160788</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.006922395896845845</v>
+        <v>0.01202109499204899</v>
       </c>
       <c r="C13">
-        <v>-0.009129213440970289</v>
+        <v>0.01226884547524687</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.02028921368055997</v>
+        <v>-0.01811212698384791</v>
       </c>
       <c r="C14">
-        <v>-0.01954072932690584</v>
+        <v>-0.0176578512881263</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.007751709746586249</v>
+        <v>0.008267000305623539</v>
       </c>
       <c r="C15">
-        <v>0.008818863941935746</v>
+        <v>0.008354320217807515</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.002231234574626441</v>
+        <v>0.0155543201260412</v>
       </c>
       <c r="C16">
-        <v>4.726309369938298E-05</v>
+        <v>0.01529924167579959</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.01595901843310822</v>
+        <v>0.02610682900941811</v>
       </c>
       <c r="C17">
-        <v>0.01422146160138122</v>
+        <v>0.02670441235581438</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.01346843607375435</v>
+        <v>0.01119381723650057</v>
       </c>
       <c r="C18">
-        <v>0.01461937801225185</v>
+        <v>0.01198910543913419</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.02735944229413953</v>
+        <v>-0.02208868210950156</v>
       </c>
       <c r="C19">
-        <v>-0.0264625732197929</v>
+        <v>-0.02123564395767846</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.01341152657150337</v>
+        <v>0.001321177868129669</v>
       </c>
       <c r="C20">
-        <v>-0.01387625849828262</v>
+        <v>0.001025826463892193</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.0130872412547784</v>
+        <v>-0.00882378872551501</v>
       </c>
       <c r="C21">
-        <v>-0.01373217039874388</v>
+        <v>-0.009935291720552844</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.004459982482842906</v>
+        <v>-0.005769294353408033</v>
       </c>
       <c r="C22">
-        <v>-0.004631462287042438</v>
+        <v>-0.006487458258708658</v>
       </c>
     </row>
   </sheetData>
